--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2703A261-CC20-4B8C-BF4C-D5BEFBBC04D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C25373-31FF-49AA-A99C-E64B55490F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{98BB078B-02F0-6A40-B0B8-47246E5E4F5A}"/>
   </bookViews>
@@ -461,7 +461,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -507,7 +507,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -827,7 +826,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2230,7 +2229,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2255,8 +2254,8 @@
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29">
-        <v>5</v>
+      <c r="B2" s="11">
+        <v>2023537</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -2266,20 +2265,16 @@
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
-        <f>5000/25000000</f>
-        <v>2.0000000000000001E-4</v>
+      <c r="B3" s="11">
+        <v>2768286</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="29">
-        <v>20</v>
+      <c r="B4" s="11">
+        <v>1338376</v>
       </c>
       <c r="I4" s="11"/>
       <c r="L4" s="11"/>
@@ -2290,8 +2285,8 @@
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="29">
-        <v>30</v>
+      <c r="B5" s="11">
+        <v>1313551</v>
       </c>
       <c r="J5" s="11"/>
       <c r="L5" s="11"/>
@@ -2304,11 +2299,8 @@
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="29">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8">
-        <v>10</v>
+      <c r="B6" s="11">
+        <v>557262</v>
       </c>
       <c r="J6" s="11"/>
       <c r="L6" s="11"/>
@@ -2321,8 +2313,8 @@
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="29">
-        <v>5</v>
+      <c r="B7" s="11">
+        <v>285067</v>
       </c>
       <c r="J7" s="11"/>
       <c r="L7" s="11"/>
